--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -102,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D688"/>
+  <dimension ref="A1:D573"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1695,996 +1695,2031 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:4">
       <c r="A139" s="5">
-        <v>44751.6133757</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>44751.6939776</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="5">
-        <v>44751.6140702</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>44751.694672</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="5">
-        <v>44751.6147647</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>44751.6953665</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="5">
-        <v>44751.6154592</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>44751.696061</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="5">
-        <v>44751.6161537</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>44751.6967555</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="5">
-        <v>44751.6168483</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>44751.6974499</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="5">
-        <v>44751.6175428</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>44751.6981444</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="5">
-        <v>44751.6182373</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>44751.6988389</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="5">
-        <v>44751.6189317</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>44751.6995334</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="5">
-        <v>44751.6196262</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>44751.7002278</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="5">
-        <v>44751.6203206</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>44751.7009223</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="5">
-        <v>44751.6210151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>44751.7016169</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="5">
-        <v>44751.6217096</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>44751.7023115</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="5">
-        <v>44751.6224041</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>44751.703006</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="5">
-        <v>44751.6230988</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>44751.7037005</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="5">
-        <v>44751.6237933</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>44751.7043949</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="5">
-        <v>44751.6244879</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>44751.7050895</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="5">
-        <v>44751.6251824</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>44751.705784</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="5">
-        <v>44751.6258769</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>44751.7064784</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="5">
-        <v>44751.6265715</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>44751.7071729</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="5">
-        <v>44751.627266</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>44751.7078674</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="5">
-        <v>44751.6279604</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>44751.7085619</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="5">
-        <v>44751.628655</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>44751.7092564</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="5">
-        <v>44751.6293495</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>44751.7099508</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="5">
-        <v>44751.6300442</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>44751.7106453</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D163" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="5">
-        <v>44751.6307387</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>44751.7113398</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D164" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="5">
-        <v>44751.6314333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>44751.7120343</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D165" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="5">
-        <v>44751.6321279</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>44751.7127287</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="5">
-        <v>44751.6328224</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>44751.7134233</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="5">
-        <v>44751.6335169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>44751.7141178</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="5">
-        <v>44751.6342115</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>44751.7148123</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D169" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="5">
-        <v>44751.634906</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>44751.7155068</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="5">
-        <v>44751.6356006</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>44751.7162013</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D171" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="5">
-        <v>44751.6362952</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>44751.7168957</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="5">
-        <v>44751.6369898</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>44751.7175902</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="5">
-        <v>44751.6376844</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>44751.7182847</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="5">
-        <v>44751.6383789</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>44751.7189792</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D175" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="5">
-        <v>44751.6390733</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>44751.7196737</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D176" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="5">
-        <v>44751.6397678</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>44751.7203682</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D177" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="5">
-        <v>44751.6404624</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>44751.7210626</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D178" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="5">
-        <v>44751.641157</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>44751.7217571</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D179" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="5">
-        <v>44751.6418515</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>44751.7224516</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="5">
-        <v>44751.6425461</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>44751.723146</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D181" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="5">
-        <v>44751.6432406</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>44751.7238406</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="5">
-        <v>44751.6439352</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>44751.724535</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="5">
-        <v>44751.6446297</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>44751.7252295</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="5">
-        <v>44751.6453242</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>44751.7259239</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="5">
-        <v>44751.6460188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>44751.7266184</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="5">
-        <v>44751.6467133</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>44751.7273129</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="5">
-        <v>44751.6474079</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>44751.7280073</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="5">
-        <v>44751.6481024</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>44751.7287018</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D189" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="5">
-        <v>44751.648797</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>44751.7293964</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="5">
-        <v>44751.6494916</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>44751.7300909</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="5">
-        <v>44751.6501861</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>44751.7307853</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="5">
-        <v>44751.6508805</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>44751.7314798</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="5">
-        <v>44751.6515751</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>44751.7321743</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="5">
-        <v>44751.6522697</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>44751.7328688</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="5">
-        <v>44751.6529642</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>44751.7335632</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="5">
-        <v>44751.6536587</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>44751.7342578</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="5">
-        <v>44751.6543533</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>44751.7349523</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="5">
-        <v>44751.6550478</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>44751.7356467</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="5">
-        <v>44751.6557424</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>44751.7363412</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D200" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="5">
-        <v>44751.6564369</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>44751.7370357</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="5">
-        <v>44751.6571313</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>44751.7377302</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="5">
-        <v>44751.6578258</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>44751.7384247</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C203" s="1" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="5">
-        <v>44751.6585204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>44751.7391191</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="5">
-        <v>44751.6592148</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>44751.7398136</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="5">
-        <v>44751.6599093</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>44751.740508</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="5">
-        <v>44751.6606038</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>44751.7412024</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="5">
-        <v>44751.6612983</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>44751.7418969</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="5">
-        <v>44751.6619928</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>44751.7425914</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="5">
-        <v>44751.6626874</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>44751.7432858</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="5">
-        <v>44751.663382</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>44751.7439803</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="D211" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="5">
-        <v>44751.6640765</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>44751.7446749</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="5">
-        <v>44751.664771</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>44751.7453693</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="5">
-        <v>44751.6654654</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>44751.7460638</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D214" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="5">
-        <v>44751.66616</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>44751.7467583</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D215" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="5">
-        <v>44751.6668546</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>44751.7474528</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D216" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="5">
-        <v>44751.6675491</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>44751.7481473</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="5">
-        <v>44751.6682436</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>44751.7488417</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="5">
-        <v>44751.6689381</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>44751.7495362</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D219" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="5">
-        <v>44751.6696327</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>44751.7502307</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D220" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="5">
-        <v>44751.6703272</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>44751.7509251</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C221" s="1" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="5">
-        <v>44751.6710216</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>44751.7516197</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="5">
-        <v>44751.6717162</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>44751.7523143</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="D223" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="5">
-        <v>44751.6724106</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>44751.7530088</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="5">
-        <v>44751.6731052</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>44751.7537033</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="5">
-        <v>44751.6737998</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>44751.7543978</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D226" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="5">
-        <v>44751.6744943</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>44751.7550923</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="5">
-        <v>44751.6751889</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>44751.7557868</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="5">
-        <v>44751.6758833</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>44751.7564813</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="5">
-        <v>44751.6765779</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>44751.7571758</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="5">
-        <v>44751.6772724</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>44751.7578703</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D231" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="5">
-        <v>44751.6779669</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>44751.7585648</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="5">
-        <v>44751.6786614</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>44751.7592592</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="5">
-        <v>44751.6793559</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>44751.7599539</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D234" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="5">
-        <v>44751.6800505</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>44751.7606484</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D235" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="5">
-        <v>44751.6807451</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>44751.7613429</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="5">
-        <v>44751.6814397</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>44751.7620373</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="D237" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="5">
-        <v>44751.6821342</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>44751.7627318</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="5">
-        <v>44751.6828287</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>44751.7634264</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="5">
-        <v>44751.6835233</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>44751.764121</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="5">
-        <v>44751.6842178</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>44751.7648154</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="5">
-        <v>44751.6849123</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>44751.76551</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="5">
-        <v>44751.6856067</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>44751.7662044</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="5">
-        <v>44751.6863012</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>44751.766899</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="5">
-        <v>44751.6869957</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>44751.7675935</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="5">
-        <v>44751.6876901</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>44751.768288</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="5">
-        <v>44751.6883846</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>44751.7689824</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="5">
-        <v>44751.6890792</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>44751.7696769</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D248" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="5">
-        <v>44751.6897736</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>44751.7703714</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D249" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="5">
-        <v>44751.6904682</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>44751.7710658</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D250" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="5">
-        <v>44751.6911628</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>44751.7717611</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="5">
-        <v>44751.6918572</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>44751.7724556</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D252" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="5">
-        <v>44751.6925517</v>
+        <v>44751.77315</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D253" s="1" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="5">
-        <v>44751.6939776</v>
+        <v>44751.7738445</v>
       </c>
       <c r="B254" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>48.2</v>
+        <v>36.2</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="5">
-        <v>44751.694672</v>
+        <v>44751.7745391</v>
       </c>
       <c r="B255" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>38.8</v>
+        <v>43.1</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="5">
-        <v>44751.6953665</v>
+        <v>44751.7752336</v>
       </c>
       <c r="B256" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>37.4</v>
+        <v>41</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="5">
-        <v>44751.696061</v>
+        <v>44751.7759281</v>
       </c>
       <c r="B257" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>50.7</v>
+        <v>37.9</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5">
-        <v>44751.6967555</v>
+        <v>44751.7766227</v>
       </c>
       <c r="B258" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>51</v>
+        <v>44.2</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="5">
-        <v>44751.6974499</v>
+        <v>44751.7773173</v>
       </c>
       <c r="B259" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>44.6</v>
+        <v>37.6</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5">
-        <v>44751.6981444</v>
+        <v>44751.7780117</v>
       </c>
       <c r="B260" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>38.6</v>
+        <v>40.6</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5">
-        <v>44751.6988389</v>
+        <v>44751.7787062</v>
       </c>
       <c r="B261" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>39.7</v>
+        <v>41.1</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5">
-        <v>44751.6995334</v>
+        <v>44751.7794008</v>
       </c>
       <c r="B262" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>38.3</v>
+        <v>39.3</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5">
-        <v>44751.7002278</v>
+        <v>44751.7800954</v>
       </c>
       <c r="B263" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>50.7</v>
+        <v>42.9</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5">
-        <v>44751.7009223</v>
+        <v>44751.78079</v>
       </c>
       <c r="B264" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5">
-        <v>44751.7016169</v>
+        <v>44751.7814844</v>
       </c>
       <c r="B265" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>49.7</v>
+        <v>39.2</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5">
-        <v>44751.7023115</v>
+        <v>44751.782179</v>
       </c>
       <c r="B266" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>38.6</v>
+        <v>42.2</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5">
-        <v>44751.703006</v>
+        <v>44751.7828735</v>
       </c>
       <c r="B267" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>51.1</v>
+        <v>42.2</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5">
-        <v>44751.7037005</v>
+        <v>44751.783568</v>
       </c>
       <c r="B268" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>49.4</v>
+        <v>43.8</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5">
-        <v>44751.7043949</v>
+        <v>44751.7842625</v>
       </c>
       <c r="B269" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>51.3</v>
+        <v>45.6</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5">
-        <v>44751.7050895</v>
+        <v>44751.7850305</v>
       </c>
       <c r="B270" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>49.6</v>
+        <v>38.1</v>
       </c>
       <c r="D270" s="1" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5">
-        <v>44751.705784</v>
+        <v>44751.785725</v>
       </c>
       <c r="B271" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>51.5</v>
+        <v>36.6</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5">
-        <v>44751.7064784</v>
+        <v>44751.7864196</v>
       </c>
       <c r="B272" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>27.3</v>
+        <v>43</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="5">
-        <v>44751.7071729</v>
+        <v>44751.7871141</v>
       </c>
       <c r="B273" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45.9</v>
+        <v>42.4</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="5">
-        <v>44751.7078674</v>
+        <v>44751.7878086</v>
       </c>
       <c r="B274" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>50.1</v>
+        <v>36</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="5">
-        <v>44751.7085619</v>
+        <v>44751.7885031</v>
       </c>
       <c r="B275" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>24.1</v>
+        <v>39.7</v>
       </c>
       <c r="D275" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="5">
-        <v>44751.7092564</v>
+        <v>44751.7891976</v>
       </c>
       <c r="B276" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>37.5</v>
+        <v>39.7</v>
       </c>
       <c r="D276" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="5">
-        <v>44751.7099508</v>
+        <v>44751.789892</v>
       </c>
       <c r="B277" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>47.5</v>
+        <v>36.9</v>
       </c>
       <c r="D277" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="5">
-        <v>44751.7106453</v>
+        <v>44751.7905865</v>
       </c>
       <c r="B278" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>40.5</v>
+        <v>45.6</v>
       </c>
       <c r="D278" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="5">
-        <v>44751.7113398</v>
+        <v>44751.7912809</v>
       </c>
       <c r="B279" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>36.6</v>
+        <v>38</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="5">
-        <v>44751.7120343</v>
+        <v>44751.7919754</v>
       </c>
       <c r="B280" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>34.9</v>
+        <v>40.3</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="5">
-        <v>44751.7127287</v>
+        <v>44751.7926699</v>
       </c>
       <c r="B281" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>34.7</v>
+        <v>40.3</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="5">
-        <v>44751.7134233</v>
+        <v>44751.7933643</v>
       </c>
       <c r="B282" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>47.5</v>
+        <v>34.3</v>
       </c>
       <c r="D282" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="5">
-        <v>44751.7141178</v>
+        <v>44751.7940589</v>
       </c>
       <c r="B283" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>70</v>
@@ -2692,13 +3727,13 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="5">
-        <v>44751.7148123</v>
+        <v>44751.7947534</v>
       </c>
       <c r="B284" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>36.9</v>
+        <v>39.8</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>70</v>
@@ -2706,13 +3741,13 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="5">
-        <v>44751.7155068</v>
+        <v>44751.7954478</v>
       </c>
       <c r="B285" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>37.1</v>
+        <v>38.9</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>70</v>
@@ -2720,13 +3755,13 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="5">
-        <v>44751.7162013</v>
+        <v>44751.7961424</v>
       </c>
       <c r="B286" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>47.8</v>
+        <v>32.3</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>70</v>
@@ -2734,13 +3769,13 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="5">
-        <v>44751.7168957</v>
+        <v>44751.7968369</v>
       </c>
       <c r="B287" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>36.1</v>
+        <v>41.7</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>70</v>
@@ -2748,13 +3783,13 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="5">
-        <v>44751.7175902</v>
+        <v>44751.7975313</v>
       </c>
       <c r="B288" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46.6</v>
+        <v>41.1</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>70</v>
@@ -2762,13 +3797,13 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="5">
-        <v>44751.7182847</v>
+        <v>44751.7982258</v>
       </c>
       <c r="B289" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>44.9</v>
+        <v>36.5</v>
       </c>
       <c r="D289" s="1" t="n">
         <v>70</v>
@@ -2776,13 +3811,13 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="5">
-        <v>44751.7189792</v>
+        <v>44751.7989204</v>
       </c>
       <c r="B290" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46.7</v>
+        <v>39.2</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>70</v>
@@ -2790,13 +3825,13 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="5">
-        <v>44751.7196737</v>
+        <v>44751.7996149</v>
       </c>
       <c r="B291" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46.6</v>
+        <v>41.6</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>70</v>
@@ -2804,13 +3839,13 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="5">
-        <v>44751.7203682</v>
+        <v>44751.8003095</v>
       </c>
       <c r="B292" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>35.3</v>
+        <v>33.2</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>70</v>
@@ -2818,13 +3853,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="5">
-        <v>44751.7210626</v>
+        <v>44751.8010039</v>
       </c>
       <c r="B293" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>47.5</v>
+        <v>34.8</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>70</v>
@@ -2832,3255 +3867,3255 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="5">
-        <v>44751.7217571</v>
+        <v>44751.8016984</v>
       </c>
       <c r="B294" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>37.3</v>
+        <v>39.5</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="5">
-        <v>44751.7224516</v>
+        <v>44751.8023929</v>
       </c>
       <c r="B295" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>47</v>
+        <v>34.3</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="5">
-        <v>44751.723146</v>
+        <v>44751.8030874</v>
       </c>
       <c r="B296" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>35.8</v>
+        <v>40.3</v>
       </c>
       <c r="D296" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="5">
-        <v>44751.7238406</v>
+        <v>44751.8037819</v>
       </c>
       <c r="B297" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>47.6</v>
+        <v>43.4</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="5">
-        <v>44751.724535</v>
+        <v>44751.8044763</v>
       </c>
       <c r="B298" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46.7</v>
+        <v>43.6</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="5">
-        <v>44751.7252295</v>
+        <v>44751.8051709</v>
       </c>
       <c r="B299" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>39.7</v>
+        <v>36.3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="5">
-        <v>44751.7259239</v>
+        <v>44751.8058653</v>
       </c>
       <c r="B300" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>40.4</v>
+        <v>35.5</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="5">
-        <v>44751.7266184</v>
+        <v>44751.8065598</v>
       </c>
       <c r="B301" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="5">
-        <v>44751.7273129</v>
+        <v>44751.8072543</v>
       </c>
       <c r="B302" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>37.4</v>
+        <v>32.9</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="5">
-        <v>44751.7280073</v>
+        <v>44751.8079488</v>
       </c>
       <c r="B303" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>39.5</v>
+        <v>46.1</v>
       </c>
       <c r="D303" s="1" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="5">
-        <v>44751.7287018</v>
+        <v>44751.8086432</v>
       </c>
       <c r="B304" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="5">
-        <v>44751.7293964</v>
+        <v>44751.8093377</v>
       </c>
       <c r="B305" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>50.1</v>
+        <v>45.3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5">
-        <v>44751.7300909</v>
+        <v>44751.8100322</v>
       </c>
       <c r="B306" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>48.7</v>
+        <v>46.6</v>
       </c>
       <c r="D306" s="1" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="5">
-        <v>44751.7307853</v>
+        <v>44751.8107266</v>
       </c>
       <c r="B307" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="D307" s="1" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5">
-        <v>44751.7314798</v>
+        <v>44751.8114211</v>
       </c>
       <c r="B308" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>50.2</v>
+        <v>36.7</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5">
-        <v>44751.7321743</v>
+        <v>44751.8121157</v>
       </c>
       <c r="B309" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>50.6</v>
+        <v>37.2</v>
       </c>
       <c r="D309" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5">
-        <v>44751.7328688</v>
+        <v>44751.8128102</v>
       </c>
       <c r="B310" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>39.7</v>
+        <v>36.7</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="5">
-        <v>44751.7335632</v>
+        <v>44751.8135047</v>
       </c>
       <c r="B311" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>50.2</v>
+        <v>41.7</v>
       </c>
       <c r="D311" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="5">
-        <v>44751.7342578</v>
+        <v>44751.8141991</v>
       </c>
       <c r="B312" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>42.7</v>
       </c>
       <c r="D312" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5">
-        <v>44751.7349523</v>
+        <v>44751.8148936</v>
       </c>
       <c r="B313" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>51.9</v>
+        <v>35.2</v>
       </c>
       <c r="D313" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="5">
-        <v>44751.7356467</v>
+        <v>44751.8155881</v>
       </c>
       <c r="B314" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>52.4</v>
+        <v>35.3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="5">
-        <v>44751.7363412</v>
+        <v>44751.8162826</v>
       </c>
       <c r="B315" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>41.5</v>
+        <v>42.4</v>
       </c>
       <c r="D315" s="1" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="5">
-        <v>44751.7370357</v>
+        <v>44751.816977</v>
       </c>
       <c r="B316" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46.9</v>
+        <v>36.4</v>
       </c>
       <c r="D316" s="1" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="5">
-        <v>44751.7377302</v>
+        <v>44751.8176716</v>
       </c>
       <c r="B317" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>52</v>
+        <v>37.8</v>
       </c>
       <c r="D317" s="1" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="5">
-        <v>44751.7384247</v>
+        <v>44751.818366</v>
       </c>
       <c r="B318" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>44.3</v>
+        <v>39.5</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="5">
-        <v>44751.7391191</v>
+        <v>44751.8190605</v>
       </c>
       <c r="B319" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>41.7</v>
+        <v>36.9</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="5">
-        <v>44751.7398136</v>
+        <v>44751.8197549</v>
       </c>
       <c r="B320" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>52</v>
+        <v>38.2</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="5">
-        <v>44751.740508</v>
+        <v>44751.8204495</v>
       </c>
       <c r="B321" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45.1</v>
+        <v>34.4</v>
       </c>
       <c r="D321" s="1" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="5">
-        <v>44751.7412024</v>
+        <v>44751.8211441</v>
       </c>
       <c r="B322" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>52.4</v>
+        <v>35.5</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="5">
-        <v>44751.7418969</v>
+        <v>44751.8218386</v>
       </c>
       <c r="B323" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>51.4</v>
+        <v>41.7</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="5">
-        <v>44751.7425914</v>
+        <v>44751.822533</v>
       </c>
       <c r="B324" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>43.5</v>
+        <v>34.5</v>
       </c>
       <c r="D324" s="1" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="5">
-        <v>44751.7432858</v>
+        <v>44751.8232275</v>
       </c>
       <c r="B325" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45.1</v>
+        <v>34.8</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="5">
-        <v>44751.7439803</v>
+        <v>44751.823922</v>
       </c>
       <c r="B326" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>49</v>
+        <v>34.2</v>
       </c>
       <c r="D326" s="1" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="5">
-        <v>44751.7446749</v>
+        <v>44751.8246164</v>
       </c>
       <c r="B327" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>44.4</v>
+        <v>34</v>
       </c>
       <c r="D327" s="1" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="5">
-        <v>44751.7453693</v>
+        <v>44751.8253109</v>
       </c>
       <c r="B328" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>49.8</v>
+        <v>33.3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="5">
-        <v>44751.7460638</v>
+        <v>44751.8260054</v>
       </c>
       <c r="B329" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C329" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="5">
-        <v>44751.7467583</v>
+        <v>44751.8266999</v>
       </c>
       <c r="B330" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>50.9</v>
+        <v>33.9</v>
       </c>
       <c r="D330" s="1" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="5">
-        <v>44751.7474528</v>
+        <v>44751.8273943</v>
       </c>
       <c r="B331" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>49.4</v>
+        <v>41.9</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="5">
-        <v>44751.7481473</v>
+        <v>44751.8280888</v>
       </c>
       <c r="B332" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>39.4</v>
+        <v>37.4</v>
       </c>
       <c r="D332" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="5">
-        <v>44751.7488417</v>
+        <v>44751.8287833</v>
       </c>
       <c r="B333" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>39.2</v>
+        <v>38.2</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="5">
-        <v>44751.7495362</v>
+        <v>44751.8294778</v>
       </c>
       <c r="B334" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>50.1</v>
+        <v>41</v>
       </c>
       <c r="D334" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="5">
-        <v>44751.7502307</v>
+        <v>44751.8301722</v>
       </c>
       <c r="B335" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>38.3</v>
+        <v>33.2</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="5">
-        <v>44751.7509251</v>
+        <v>44751.8308667</v>
       </c>
       <c r="B336" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="5">
-        <v>44751.7516197</v>
+        <v>44751.8315613</v>
       </c>
       <c r="B337" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>49.4</v>
+        <v>41.1</v>
       </c>
       <c r="D337" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="5">
-        <v>44751.7523143</v>
+        <v>44751.8322557</v>
       </c>
       <c r="B338" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>44.3</v>
+        <v>32.8</v>
       </c>
       <c r="D338" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="5">
-        <v>44751.7530088</v>
+        <v>44751.8329502</v>
       </c>
       <c r="B339" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>48.7</v>
+        <v>37.7</v>
       </c>
       <c r="D339" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="5">
-        <v>44751.7537033</v>
+        <v>44751.8336447</v>
       </c>
       <c r="B340" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>37.4</v>
+        <v>39.3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="5">
-        <v>44751.7543978</v>
+        <v>44751.8343392</v>
       </c>
       <c r="B341" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>37.7</v>
+        <v>42.5</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="5">
-        <v>44751.7550923</v>
+        <v>44751.8350336</v>
       </c>
       <c r="B342" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>39.1</v>
+        <v>36.2</v>
       </c>
       <c r="D342" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="5">
-        <v>44751.7557868</v>
+        <v>44751.8357281</v>
       </c>
       <c r="B343" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="D343" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="5">
-        <v>44751.7564813</v>
+        <v>44751.8364226</v>
       </c>
       <c r="B344" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>47.1</v>
+        <v>43.4</v>
       </c>
       <c r="D344" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="5">
-        <v>44751.7571758</v>
+        <v>44751.8371171</v>
       </c>
       <c r="B345" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>48.6</v>
+        <v>35.3</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="5">
-        <v>44751.7578703</v>
+        <v>44751.8378115</v>
       </c>
       <c r="B346" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>38.2</v>
+        <v>40</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="5">
-        <v>44751.7585648</v>
+        <v>44751.838506</v>
       </c>
       <c r="B347" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>36</v>
+        <v>38.7</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="5">
-        <v>44751.7592592</v>
+        <v>44751.8392006</v>
       </c>
       <c r="B348" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>36.1</v>
+        <v>40.4</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="5">
-        <v>44751.7599539</v>
+        <v>44751.839895</v>
       </c>
       <c r="B349" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>36.2</v>
+        <v>38.7</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="5">
-        <v>44751.7606484</v>
+        <v>44751.8405894</v>
       </c>
       <c r="B350" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46.6</v>
+        <v>42.5</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="5">
-        <v>44751.7613429</v>
+        <v>44751.8427816</v>
       </c>
       <c r="B351" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>36</v>
+        <v>33.1</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="5">
-        <v>44751.7620373</v>
+        <v>44751.8434761</v>
       </c>
       <c r="B352" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>37.1</v>
+        <v>42.2</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="5">
-        <v>44751.7627318</v>
+        <v>44751.8441705</v>
       </c>
       <c r="B353" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>37.7</v>
+        <v>34.4</v>
       </c>
       <c r="D353" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="5">
-        <v>44751.7634264</v>
+        <v>44751.844865</v>
       </c>
       <c r="B354" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>37.1</v>
+        <v>40.3</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="5">
-        <v>44751.764121</v>
+        <v>44751.8455595</v>
       </c>
       <c r="B355" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>41.5</v>
+        <v>42.5</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="5">
-        <v>44751.7648154</v>
+        <v>44751.8467394</v>
       </c>
       <c r="B356" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>47.9</v>
+        <v>43.5</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="5">
-        <v>44751.76551</v>
+        <v>44751.8479141</v>
       </c>
       <c r="B357" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>48.2</v>
+        <v>35.8</v>
       </c>
       <c r="D357" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="5">
-        <v>44751.7662044</v>
+        <v>44751.8486086</v>
       </c>
       <c r="B358" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>43.1</v>
+        <v>36.4</v>
       </c>
       <c r="D358" s="1" t="n">
-        <v>74</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="5">
-        <v>44751.766899</v>
+        <v>44751.849303</v>
       </c>
       <c r="B359" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>49.1</v>
+        <v>37.5</v>
       </c>
       <c r="D359" s="1" t="n">
-        <v>73</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="5">
-        <v>44751.7675935</v>
+        <v>44751.8499976</v>
       </c>
       <c r="B360" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>41.5</v>
+        <v>42.2</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>73</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="5">
-        <v>44751.768288</v>
+        <v>44751.8506921</v>
       </c>
       <c r="B361" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>40.8</v>
+        <v>37.5</v>
       </c>
       <c r="D361" s="1" t="n">
-        <v>73</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="5">
-        <v>44751.7689824</v>
+        <v>44751.8513865</v>
       </c>
       <c r="B362" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46.9</v>
+        <v>35</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>72</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="5">
-        <v>44751.7696769</v>
+        <v>44751.852081</v>
       </c>
       <c r="B363" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>43.6</v>
+        <v>38.3</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>72</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="5">
-        <v>44751.7703714</v>
+        <v>44751.8527755</v>
       </c>
       <c r="B364" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>44.7</v>
+        <v>32.4</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>72</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="5">
-        <v>44751.7710658</v>
+        <v>44751.85347</v>
       </c>
       <c r="B365" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46.5</v>
+        <v>33.8</v>
       </c>
       <c r="D365" s="1" t="n">
-        <v>72</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="5">
-        <v>44751.7717611</v>
+        <v>44751.8541645</v>
       </c>
       <c r="B366" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>39.6</v>
+        <v>33.4</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>71</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="5">
-        <v>44751.7724556</v>
+        <v>44751.854859</v>
       </c>
       <c r="B367" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>43.7</v>
+        <v>40.9</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>71</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="5">
-        <v>44751.77315</v>
+        <v>44751.8555535</v>
       </c>
       <c r="B368" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>43.4</v>
+        <v>44.6</v>
       </c>
       <c r="D368" s="1" t="n">
-        <v>71</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="5">
-        <v>44751.7738445</v>
+        <v>44751.856248</v>
       </c>
       <c r="B369" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>71</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="5">
-        <v>44751.7745391</v>
+        <v>44751.8574107</v>
       </c>
       <c r="B370" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>43.1</v>
+        <v>42.6</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="5">
-        <v>44751.7752336</v>
+        <v>44751.8581052</v>
       </c>
       <c r="B371" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D371" s="1" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="5">
-        <v>44751.7759281</v>
+        <v>44751.8587997</v>
       </c>
       <c r="B372" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>37.9</v>
+        <v>32.4</v>
       </c>
       <c r="D372" s="1" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="5">
-        <v>44751.7766227</v>
+        <v>44751.8594943</v>
       </c>
       <c r="B373" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>44.2</v>
+        <v>34.9</v>
       </c>
       <c r="D373" s="1" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="5">
-        <v>44751.7773173</v>
+        <v>44751.8601888</v>
       </c>
       <c r="B374" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>37.6</v>
+        <v>42.3</v>
       </c>
       <c r="D374" s="1" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="5">
-        <v>44751.7780117</v>
+        <v>44751.8608833</v>
       </c>
       <c r="B375" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>40.6</v>
+        <v>41.8</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="5">
-        <v>44751.7787062</v>
+        <v>44751.8615778</v>
       </c>
       <c r="B376" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>41.1</v>
+        <v>32.8</v>
       </c>
       <c r="D376" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="5">
-        <v>44751.7794008</v>
+        <v>44751.8622722</v>
       </c>
       <c r="B377" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C377" s="1" t="n">
         <v>39.3</v>
       </c>
       <c r="D377" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="5">
-        <v>44751.7800954</v>
+        <v>44751.8629667</v>
       </c>
       <c r="B378" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>42.9</v>
+        <v>31.6</v>
       </c>
       <c r="D378" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="5">
-        <v>44751.78079</v>
+        <v>44751.8636612</v>
       </c>
       <c r="B379" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46</v>
+        <v>37.2</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="5">
-        <v>44751.7814844</v>
+        <v>44751.8657463</v>
       </c>
       <c r="B380" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>39.2</v>
+        <v>33.9</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="5">
-        <v>44751.782179</v>
+        <v>44751.8664408</v>
       </c>
       <c r="B381" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
       <c r="D381" s="1" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="5">
-        <v>44751.7828735</v>
+        <v>44751.8671352</v>
       </c>
       <c r="B382" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>42.2</v>
+        <v>32</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="5">
-        <v>44751.783568</v>
+        <v>44751.8678297</v>
       </c>
       <c r="B383" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>43.8</v>
+        <v>31.6</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="5">
-        <v>44751.7842625</v>
+        <v>44751.8685243</v>
       </c>
       <c r="B384" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45.6</v>
+        <v>40.9</v>
       </c>
       <c r="D384" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="5">
-        <v>44751.7850305</v>
+        <v>44751.8692188</v>
       </c>
       <c r="B385" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>38.1</v>
+        <v>38.8</v>
       </c>
       <c r="D385" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="5">
-        <v>44751.785725</v>
+        <v>44751.8699132</v>
       </c>
       <c r="B386" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>36.6</v>
+        <v>33</v>
       </c>
       <c r="D386" s="1" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="5">
-        <v>44751.7864196</v>
+        <v>44751.8706077</v>
       </c>
       <c r="B387" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="D387" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="5">
-        <v>44751.7871141</v>
+        <v>44751.8713023</v>
       </c>
       <c r="B388" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>42.4</v>
+        <v>32.1</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="5">
-        <v>44751.7878086</v>
+        <v>44751.8719968</v>
       </c>
       <c r="B389" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="D389" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="5">
-        <v>44751.7885031</v>
+        <v>44751.8726912</v>
       </c>
       <c r="B390" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>39.7</v>
+        <v>42.2</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="5">
-        <v>44751.7891976</v>
+        <v>44751.8733857</v>
       </c>
       <c r="B391" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>39.7</v>
+        <v>36.2</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="5">
-        <v>44751.789892</v>
+        <v>44751.8740802</v>
       </c>
       <c r="B392" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>36.9</v>
+        <v>35.8</v>
       </c>
       <c r="D392" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="5">
-        <v>44751.7905865</v>
+        <v>44751.8747746</v>
       </c>
       <c r="B393" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45.6</v>
+        <v>32.1</v>
       </c>
       <c r="D393" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="5">
-        <v>44751.7912809</v>
+        <v>44751.8754691</v>
       </c>
       <c r="B394" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>38</v>
+        <v>40.3</v>
       </c>
       <c r="D394" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="5">
-        <v>44751.7919754</v>
+        <v>44751.8761636</v>
       </c>
       <c r="B395" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>40.3</v>
+        <v>32.4</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="5">
-        <v>44751.7926699</v>
+        <v>44751.876858</v>
       </c>
       <c r="B396" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>40.3</v>
+        <v>31.8</v>
       </c>
       <c r="D396" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="5">
-        <v>44751.7933643</v>
+        <v>44751.8775525</v>
       </c>
       <c r="B397" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>34.3</v>
+        <v>32.3</v>
       </c>
       <c r="D397" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="5">
-        <v>44751.7940589</v>
+        <v>44751.878247</v>
       </c>
       <c r="B398" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="5">
-        <v>44751.7947534</v>
+        <v>44751.8789414</v>
       </c>
       <c r="B399" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>39.8</v>
+        <v>40.2</v>
       </c>
       <c r="D399" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="5">
-        <v>44751.7954478</v>
+        <v>44751.8796359</v>
       </c>
       <c r="B400" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="D400" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="5">
-        <v>44751.7961424</v>
+        <v>44751.8803305</v>
       </c>
       <c r="B401" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>32.3</v>
+        <v>29.6</v>
       </c>
       <c r="D401" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="5">
-        <v>44751.7968369</v>
+        <v>44751.881025</v>
       </c>
       <c r="B402" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>41.7</v>
+        <v>36.6</v>
       </c>
       <c r="D402" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="5">
-        <v>44751.7975313</v>
+        <v>44751.8817195</v>
       </c>
       <c r="B403" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>41.1</v>
+        <v>39.8</v>
       </c>
       <c r="D403" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="5">
-        <v>44751.7982258</v>
+        <v>44751.8824144</v>
       </c>
       <c r="B404" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>36.5</v>
+        <v>30.7</v>
       </c>
       <c r="D404" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="5">
-        <v>44751.7989204</v>
+        <v>44751.8831089</v>
       </c>
       <c r="B405" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>39.2</v>
+        <v>34.7</v>
       </c>
       <c r="D405" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="5">
-        <v>44751.7996149</v>
+        <v>44751.8838034</v>
       </c>
       <c r="B406" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>41.6</v>
+        <v>39.8</v>
       </c>
       <c r="D406" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="5">
-        <v>44751.8003095</v>
+        <v>44751.8844979</v>
       </c>
       <c r="B407" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>33.2</v>
+        <v>30.8</v>
       </c>
       <c r="D407" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="5">
-        <v>44751.8010039</v>
+        <v>44751.8851924</v>
       </c>
       <c r="B408" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>34.8</v>
+        <v>32.5</v>
       </c>
       <c r="D408" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="5">
-        <v>44751.8016984</v>
+        <v>44751.8858869</v>
       </c>
       <c r="B409" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>39.5</v>
+        <v>35</v>
       </c>
       <c r="D409" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="5">
-        <v>44751.8023929</v>
+        <v>44751.8865813</v>
       </c>
       <c r="B410" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>34.3</v>
+        <v>31.5</v>
       </c>
       <c r="D410" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="5">
-        <v>44751.8030874</v>
+        <v>44751.8872764</v>
       </c>
       <c r="B411" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="D411" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="5">
-        <v>44751.8037819</v>
+        <v>44751.8879709</v>
       </c>
       <c r="B412" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>43.4</v>
+        <v>33.8</v>
       </c>
       <c r="D412" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="5">
-        <v>44751.8044763</v>
+        <v>44751.8886654</v>
       </c>
       <c r="B413" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>43.6</v>
+        <v>30</v>
       </c>
       <c r="D413" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="5">
-        <v>44751.8051709</v>
+        <v>44751.8893599</v>
       </c>
       <c r="B414" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>36.3</v>
+        <v>29.4</v>
       </c>
       <c r="D414" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="5">
-        <v>44751.8058653</v>
+        <v>44751.8900543</v>
       </c>
       <c r="B415" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>35.5</v>
+        <v>37.5</v>
       </c>
       <c r="D415" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="5">
-        <v>44751.8065598</v>
+        <v>44751.8907488</v>
       </c>
       <c r="B416" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>42.2</v>
+        <v>38.1</v>
       </c>
       <c r="D416" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="5">
-        <v>44751.8072543</v>
+        <v>44751.8914433</v>
       </c>
       <c r="B417" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>32.9</v>
+        <v>37.7</v>
       </c>
       <c r="D417" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="5">
-        <v>44751.8079488</v>
+        <v>44751.8921378</v>
       </c>
       <c r="B418" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46.1</v>
+        <v>31.8</v>
       </c>
       <c r="D418" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="5">
-        <v>44751.8086432</v>
+        <v>44751.8928321</v>
       </c>
       <c r="B419" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>40.2</v>
+        <v>37.4</v>
       </c>
       <c r="D419" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="5">
-        <v>44751.8093377</v>
+        <v>44751.8935267</v>
       </c>
       <c r="B420" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45.3</v>
+        <v>32.3</v>
       </c>
       <c r="D420" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="5">
-        <v>44751.8100322</v>
+        <v>44751.8942213</v>
       </c>
       <c r="B421" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46.6</v>
+        <v>40.4</v>
       </c>
       <c r="D421" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="5">
-        <v>44751.8107266</v>
+        <v>44751.8949158</v>
       </c>
       <c r="B422" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>38.6</v>
+        <v>31.6</v>
       </c>
       <c r="D422" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="5">
-        <v>44751.8114211</v>
+        <v>44751.8956103</v>
       </c>
       <c r="B423" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>36.7</v>
+        <v>38.4</v>
       </c>
       <c r="D423" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="5">
-        <v>44751.8121157</v>
+        <v>44751.8963049</v>
       </c>
       <c r="B424" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>37.2</v>
+        <v>33.4</v>
       </c>
       <c r="D424" s="1" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="5">
-        <v>44751.8128102</v>
+        <v>44751.8969994</v>
       </c>
       <c r="B425" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>36.7</v>
+        <v>30.7</v>
       </c>
       <c r="D425" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="5">
-        <v>44751.8135047</v>
+        <v>44751.8976938</v>
       </c>
       <c r="B426" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>41.7</v>
+        <v>31.3</v>
       </c>
       <c r="D426" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="5">
-        <v>44751.8141991</v>
+        <v>44751.8983884</v>
       </c>
       <c r="B427" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="D427" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="5">
-        <v>44751.8148936</v>
+        <v>44751.8990831</v>
       </c>
       <c r="B428" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>35.2</v>
+        <v>37.4</v>
       </c>
       <c r="D428" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="5">
-        <v>44751.8155881</v>
+        <v>44751.8997776</v>
       </c>
       <c r="B429" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>35.3</v>
+        <v>30.3</v>
       </c>
       <c r="D429" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="5">
-        <v>44751.8162826</v>
+        <v>44751.9004721</v>
       </c>
       <c r="B430" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>42.4</v>
+        <v>38</v>
       </c>
       <c r="D430" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="5">
-        <v>44751.816977</v>
+        <v>44751.9011665</v>
       </c>
       <c r="B431" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>36.4</v>
+        <v>31.1</v>
       </c>
       <c r="D431" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="5">
-        <v>44751.8176716</v>
+        <v>44751.901861</v>
       </c>
       <c r="B432" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>37.8</v>
+        <v>40.7</v>
       </c>
       <c r="D432" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="5">
-        <v>44751.818366</v>
+        <v>44751.9025555</v>
       </c>
       <c r="B433" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="D433" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="5">
-        <v>44751.8190605</v>
+        <v>44751.9032499</v>
       </c>
       <c r="B434" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>36.9</v>
+        <v>40.7</v>
       </c>
       <c r="D434" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="5">
-        <v>44751.8197549</v>
+        <v>44751.9039444</v>
       </c>
       <c r="B435" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>38.2</v>
+        <v>30.7</v>
       </c>
       <c r="D435" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="5">
-        <v>44751.8204495</v>
+        <v>44751.9046389</v>
       </c>
       <c r="B436" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>34.4</v>
+        <v>31.2</v>
       </c>
       <c r="D436" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="5">
-        <v>44751.8211441</v>
+        <v>44751.9053335</v>
       </c>
       <c r="B437" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>35.5</v>
+        <v>37.5</v>
       </c>
       <c r="D437" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="5">
-        <v>44751.8218386</v>
+        <v>44751.906028</v>
       </c>
       <c r="B438" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>41.7</v>
+        <v>32.3</v>
       </c>
       <c r="D438" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="5">
-        <v>44751.822533</v>
+        <v>44751.9067224</v>
       </c>
       <c r="B439" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>34.5</v>
+        <v>40.8</v>
       </c>
       <c r="D439" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="5">
-        <v>44751.8232275</v>
+        <v>44751.9074169</v>
       </c>
       <c r="B440" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>34.8</v>
+        <v>30.1</v>
       </c>
       <c r="D440" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="5">
-        <v>44751.823922</v>
+        <v>44751.9081115</v>
       </c>
       <c r="B441" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>34.2</v>
+        <v>40</v>
       </c>
       <c r="D441" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="5">
-        <v>44751.8246164</v>
+        <v>44751.908806</v>
       </c>
       <c r="B442" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>34</v>
+        <v>40.4</v>
       </c>
       <c r="D442" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="5">
-        <v>44751.8253109</v>
+        <v>44751.9095004</v>
       </c>
       <c r="B443" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>33.3</v>
+        <v>36.7</v>
       </c>
       <c r="D443" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="5">
-        <v>44751.8260054</v>
+        <v>44751.9101948</v>
       </c>
       <c r="B444" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>40</v>
+        <v>30.1</v>
       </c>
       <c r="D444" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="5">
-        <v>44751.8266999</v>
+        <v>44751.9108893</v>
       </c>
       <c r="B445" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>33.9</v>
+        <v>30.3</v>
       </c>
       <c r="D445" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="5">
-        <v>44751.8273943</v>
+        <v>44751.9115838</v>
       </c>
       <c r="B446" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>41.9</v>
+        <v>30.3</v>
       </c>
       <c r="D446" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="5">
-        <v>44751.8280888</v>
+        <v>44751.9122783</v>
       </c>
       <c r="B447" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>37.4</v>
+        <v>30.7</v>
       </c>
       <c r="D447" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="5">
-        <v>44751.8287833</v>
+        <v>44751.9129728</v>
       </c>
       <c r="B448" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>38.2</v>
+        <v>37.8</v>
       </c>
       <c r="D448" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="5">
-        <v>44751.8294778</v>
+        <v>44751.9136673</v>
       </c>
       <c r="B449" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="D449" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="5">
-        <v>44751.8301722</v>
+        <v>44751.9143617</v>
       </c>
       <c r="B450" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>33.2</v>
+        <v>36.9</v>
       </c>
       <c r="D450" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="5">
-        <v>44751.8308667</v>
+        <v>44751.9150563</v>
       </c>
       <c r="B451" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>40.9</v>
+        <v>38.1</v>
       </c>
       <c r="D451" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="5">
-        <v>44751.8315613</v>
+        <v>44751.9157509</v>
       </c>
       <c r="B452" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>41.1</v>
+        <v>31.1</v>
       </c>
       <c r="D452" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="5">
-        <v>44751.8322557</v>
+        <v>44751.9164455</v>
       </c>
       <c r="B453" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="D453" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="5">
-        <v>44751.8329502</v>
+        <v>44751.9171399</v>
       </c>
       <c r="B454" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>37.7</v>
+        <v>34.9</v>
       </c>
       <c r="D454" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="5">
-        <v>44751.8336447</v>
+        <v>44751.9178345</v>
       </c>
       <c r="B455" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>39.3</v>
+        <v>37.2</v>
       </c>
       <c r="D455" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="5">
-        <v>44751.8343392</v>
+        <v>44751.9185289</v>
       </c>
       <c r="B456" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>42.5</v>
+        <v>36.7</v>
       </c>
       <c r="D456" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="5">
-        <v>44751.8350336</v>
+        <v>44751.9192234</v>
       </c>
       <c r="B457" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>36.2</v>
+        <v>32.7</v>
       </c>
       <c r="D457" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="5">
-        <v>44751.8357281</v>
+        <v>44751.9199178</v>
       </c>
       <c r="B458" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>42.5</v>
+        <v>34.3</v>
       </c>
       <c r="D458" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="5">
-        <v>44751.8364226</v>
+        <v>44751.9206124</v>
       </c>
       <c r="B459" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>43.4</v>
+        <v>37</v>
       </c>
       <c r="D459" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="5">
-        <v>44751.8371171</v>
+        <v>44751.9213069</v>
       </c>
       <c r="B460" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>35.3</v>
+        <v>36.3</v>
       </c>
       <c r="D460" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="5">
-        <v>44751.8378115</v>
+        <v>44751.9220013</v>
       </c>
       <c r="B461" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D461" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="5">
-        <v>44751.838506</v>
+        <v>44751.9226959</v>
       </c>
       <c r="B462" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>38.7</v>
+        <v>32.8</v>
       </c>
       <c r="D462" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="5">
-        <v>44751.8392006</v>
+        <v>44751.9233904</v>
       </c>
       <c r="B463" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>40.4</v>
+        <v>32.5</v>
       </c>
       <c r="D463" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="5">
-        <v>44751.839895</v>
+        <v>44751.9240848</v>
       </c>
       <c r="B464" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>38.7</v>
+        <v>29.9</v>
       </c>
       <c r="D464" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="5">
-        <v>44751.8405894</v>
+        <v>44751.9247794</v>
       </c>
       <c r="B465" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>42.5</v>
+        <v>32.8</v>
       </c>
       <c r="D465" s="1" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="5">
-        <v>44751.8427816</v>
+        <v>44751.9254738</v>
       </c>
       <c r="B466" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>33.1</v>
+        <v>32</v>
       </c>
       <c r="D466" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="5">
-        <v>44751.8434761</v>
+        <v>44751.9261683</v>
       </c>
       <c r="B467" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>42.2</v>
+        <v>29.1</v>
       </c>
       <c r="D467" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="5">
-        <v>44751.8441705</v>
+        <v>44751.9268628</v>
       </c>
       <c r="B468" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>34.4</v>
+        <v>37.9</v>
       </c>
       <c r="D468" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="5">
-        <v>44751.844865</v>
+        <v>44751.9275574</v>
       </c>
       <c r="B469" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>40.3</v>
+        <v>30.3</v>
       </c>
       <c r="D469" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="5">
-        <v>44751.8455595</v>
+        <v>44751.9282519</v>
       </c>
       <c r="B470" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>42.5</v>
+        <v>27.6</v>
       </c>
       <c r="D470" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="5">
-        <v>44751.8467394</v>
+        <v>44751.9289464</v>
       </c>
       <c r="B471" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>43.5</v>
+        <v>30</v>
       </c>
       <c r="D471" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="5">
-        <v>44751.8479141</v>
+        <v>44751.9296409</v>
       </c>
       <c r="B472" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>35.8</v>
+        <v>28.6</v>
       </c>
       <c r="D472" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="5">
-        <v>44751.8486086</v>
+        <v>44751.9303353</v>
       </c>
       <c r="B473" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>36.4</v>
+        <v>28.3</v>
       </c>
       <c r="D473" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="5">
-        <v>44751.849303</v>
+        <v>44751.9310298</v>
       </c>
       <c r="B474" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>37.5</v>
+        <v>27.8</v>
       </c>
       <c r="D474" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="5">
-        <v>44751.8499976</v>
+        <v>44751.9317244</v>
       </c>
       <c r="B475" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>42.2</v>
+        <v>29.8</v>
       </c>
       <c r="D475" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="5">
-        <v>44751.8506921</v>
+        <v>44751.9324188</v>
       </c>
       <c r="B476" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>37.5</v>
+        <v>36.9</v>
       </c>
       <c r="D476" s="1" t="n">
-        <v>-99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="5">
-        <v>44751.8513865</v>
+        <v>44751.9331133</v>
       </c>
       <c r="B477" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>35</v>
+        <v>36.7</v>
       </c>
       <c r="D477" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="5">
-        <v>44751.852081</v>
+        <v>44751.9338077</v>
       </c>
       <c r="B478" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>38.3</v>
+        <v>29.3</v>
       </c>
       <c r="D478" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="5">
-        <v>44751.8527755</v>
+        <v>44751.9345023</v>
       </c>
       <c r="B479" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>32.4</v>
+        <v>37.8</v>
       </c>
       <c r="D479" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="5">
-        <v>44751.85347</v>
+        <v>44751.9351968</v>
       </c>
       <c r="B480" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>33.8</v>
+        <v>35.8</v>
       </c>
       <c r="D480" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="5">
-        <v>44751.8541645</v>
+        <v>44751.9358913</v>
       </c>
       <c r="B481" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>33.4</v>
+        <v>32.6</v>
       </c>
       <c r="D481" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="5">
-        <v>44751.854859</v>
+        <v>44751.9365858</v>
       </c>
       <c r="B482" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>40.9</v>
+        <v>36.5</v>
       </c>
       <c r="D482" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="5">
-        <v>44751.8555535</v>
+        <v>44751.9372802</v>
       </c>
       <c r="B483" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>44.6</v>
+        <v>27.7</v>
       </c>
       <c r="D483" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="5">
-        <v>44751.856248</v>
+        <v>44751.9379746</v>
       </c>
       <c r="B484" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>35.8</v>
+        <v>30</v>
       </c>
       <c r="D484" s="1" t="n">
-        <v>-99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="5">
-        <v>44751.8574107</v>
+        <v>44751.9386692</v>
       </c>
       <c r="B485" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>42.6</v>
+        <v>36</v>
       </c>
       <c r="D485" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="5">
-        <v>44751.8581052</v>
+        <v>44751.9393637</v>
       </c>
       <c r="B486" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>40</v>
+        <v>28.2</v>
       </c>
       <c r="D486" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="5">
-        <v>44751.8587997</v>
+        <v>44751.9400581</v>
       </c>
       <c r="B487" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>32.4</v>
+        <v>36.5</v>
       </c>
       <c r="D487" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="5">
-        <v>44751.8594943</v>
+        <v>44751.9407527</v>
       </c>
       <c r="B488" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
       <c r="D488" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="5">
-        <v>44751.8601888</v>
+        <v>44751.9414472</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>42.3</v>
+        <v>27.2</v>
       </c>
       <c r="D489" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="5">
-        <v>44751.8608833</v>
+        <v>44751.9421416</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>41.8</v>
+        <v>26.7</v>
       </c>
       <c r="D490" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="5">
-        <v>44751.8615778</v>
+        <v>44751.9428361</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>32.8</v>
+        <v>36.8</v>
       </c>
       <c r="D491" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="5">
-        <v>44751.8622722</v>
+        <v>44751.9435306</v>
       </c>
       <c r="B492" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>39.3</v>
+        <v>27.1</v>
       </c>
       <c r="D492" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="5">
-        <v>44751.8629667</v>
+        <v>44751.9442251</v>
       </c>
       <c r="B493" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>31.6</v>
+        <v>37.3</v>
       </c>
       <c r="D493" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="5">
-        <v>44751.8636612</v>
+        <v>44751.9449196</v>
       </c>
       <c r="B494" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>37.2</v>
+        <v>26.6</v>
       </c>
       <c r="D494" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="5">
-        <v>44751.8657463</v>
+        <v>44751.9456141</v>
       </c>
       <c r="B495" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>33.9</v>
+        <v>28.6</v>
       </c>
       <c r="D495" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="5">
-        <v>44751.8664408</v>
+        <v>44751.9463086</v>
       </c>
       <c r="B496" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>41.2</v>
+        <v>37</v>
       </c>
       <c r="D496" s="1" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="5">
-        <v>44751.8671352</v>
+        <v>44751.9470031</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>32</v>
+        <v>37.5</v>
       </c>
       <c r="D497" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="5">
-        <v>44751.8678297</v>
+        <v>44751.9476977</v>
       </c>
       <c r="B498" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>31.6</v>
+        <v>34.3</v>
       </c>
       <c r="D498" s="1" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="5">
-        <v>44751.8685243</v>
+        <v>44751.9483923</v>
       </c>
       <c r="B499" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>40.9</v>
+        <v>26.7</v>
       </c>
       <c r="D499" s="1" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="5">
-        <v>44751.8692188</v>
+        <v>44751.9490868</v>
       </c>
       <c r="B500" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>38.8</v>
+        <v>27.2</v>
       </c>
       <c r="D500" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="5">
-        <v>44751.8699132</v>
+        <v>44751.9497812</v>
       </c>
       <c r="B501" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>33</v>
+        <v>28.9</v>
       </c>
       <c r="D501" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="5">
-        <v>44751.8706077</v>
+        <v>44751.9504758</v>
       </c>
       <c r="B502" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>42.3</v>
+        <v>35.2</v>
       </c>
       <c r="D502" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="5">
-        <v>44751.8713023</v>
+        <v>44751.9511703</v>
       </c>
       <c r="B503" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>32.1</v>
+        <v>36.5</v>
       </c>
       <c r="D503" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="5">
-        <v>44751.8719968</v>
+        <v>44751.9518648</v>
       </c>
       <c r="B504" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>32.5</v>
+        <v>36.8</v>
       </c>
       <c r="D504" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="5">
-        <v>44751.8726912</v>
+        <v>44751.9525592</v>
       </c>
       <c r="B505" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>42.2</v>
+        <v>34.7</v>
       </c>
       <c r="D505" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="5">
-        <v>44751.8733857</v>
+        <v>44751.9532537</v>
       </c>
       <c r="B506" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>36.2</v>
+        <v>27.3</v>
       </c>
       <c r="D506" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="5">
-        <v>44751.8740802</v>
+        <v>44751.9539481</v>
       </c>
       <c r="B507" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>35.8</v>
+        <v>27.8</v>
       </c>
       <c r="D507" s="1" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="5">
-        <v>44751.8747746</v>
+        <v>44751.9546426</v>
       </c>
       <c r="B508" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>32.1</v>
+        <v>32.9</v>
       </c>
       <c r="D508" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="5">
-        <v>44751.8754691</v>
+        <v>44751.9553373</v>
       </c>
       <c r="B509" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>40.3</v>
+        <v>35.3</v>
       </c>
       <c r="D509" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="5">
-        <v>44751.8761636</v>
+        <v>44751.9560317</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>32.4</v>
+        <v>30.5</v>
       </c>
       <c r="D510" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="5">
-        <v>44751.876858</v>
+        <v>44751.9567262</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D511" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="5">
-        <v>44751.8775525</v>
+        <v>44751.9574206</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>32.3</v>
+        <v>34.9</v>
       </c>
       <c r="D512" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="5">
-        <v>44751.878247</v>
+        <v>44751.9581152</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>40.9</v>
+        <v>29.7</v>
       </c>
       <c r="D513" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="5">
-        <v>44751.8789414</v>
+        <v>44751.9588096</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="D514" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="5">
-        <v>44751.8796359</v>
+        <v>44751.9595041</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="D515" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="5">
-        <v>44751.8803305</v>
+        <v>44751.9601986</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>29.6</v>
+        <v>31.7</v>
       </c>
       <c r="D516" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="5">
-        <v>44751.881025</v>
+        <v>44751.9608931</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>36.6</v>
+        <v>32.4</v>
       </c>
       <c r="D517" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="5">
-        <v>44751.8817195</v>
+        <v>44751.9615875</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>39.8</v>
+        <v>38.6</v>
       </c>
       <c r="D518" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="5">
-        <v>44751.8824144</v>
+        <v>44751.9622819</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="D519" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="5">
-        <v>44751.8831089</v>
+        <v>44751.9629764</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>34.7</v>
+        <v>30.4</v>
       </c>
       <c r="D520" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="5">
-        <v>44751.8838034</v>
+        <v>44751.9636709</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>39.8</v>
+        <v>29</v>
       </c>
       <c r="D521" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="5">
-        <v>44751.8844979</v>
+        <v>44751.9643655</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>30.8</v>
+        <v>29.7</v>
       </c>
       <c r="D522" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="5">
-        <v>44751.8851924</v>
+        <v>44751.9650599</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="D523" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="5">
-        <v>44751.8858869</v>
+        <v>44751.9657545</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>35</v>
+        <v>29.5</v>
       </c>
       <c r="D524" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="5">
-        <v>44751.8865813</v>
+        <v>44751.966449</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>31.5</v>
+        <v>40.2</v>
       </c>
       <c r="D525" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="5">
-        <v>44751.8872764</v>
+        <v>44751.9671435</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>21</v>
@@ -6089,200 +7124,200 @@
         <v>40.2</v>
       </c>
       <c r="D526" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="5">
-        <v>44751.8879709</v>
+        <v>44751.967838</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>33.8</v>
+        <v>31.3</v>
       </c>
       <c r="D527" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="5">
-        <v>44751.8886654</v>
+        <v>44751.9685325</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>30</v>
+        <v>31.4</v>
       </c>
       <c r="D528" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="5">
-        <v>44751.8893599</v>
+        <v>44751.969227</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>29.4</v>
+        <v>40.1</v>
       </c>
       <c r="D529" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="5">
-        <v>44751.8900543</v>
+        <v>44751.9699214</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>37.5</v>
+        <v>30.6</v>
       </c>
       <c r="D530" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="5">
-        <v>44751.8907488</v>
+        <v>44751.9706158</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>38.1</v>
+        <v>34.8</v>
       </c>
       <c r="D531" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="5">
-        <v>44751.8914433</v>
+        <v>44751.9713103</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>37.7</v>
+        <v>40.2</v>
       </c>
       <c r="D532" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="5">
-        <v>44751.8921378</v>
+        <v>44751.9720048</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="D533" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="5">
-        <v>44751.8928321</v>
+        <v>44751.9726993</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>37.4</v>
+        <v>38.5</v>
       </c>
       <c r="D534" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="5">
-        <v>44751.8935267</v>
+        <v>44751.9733938</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>32.3</v>
+        <v>33.5</v>
       </c>
       <c r="D535" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="5">
-        <v>44751.8942213</v>
+        <v>44751.9740882</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>40.4</v>
+        <v>34.6</v>
       </c>
       <c r="D536" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="5">
-        <v>44751.8949158</v>
+        <v>44751.9747828</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>31.6</v>
+        <v>30.2</v>
       </c>
       <c r="D537" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="5">
-        <v>44751.8956103</v>
+        <v>44751.9754773</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>38.4</v>
+        <v>33.5</v>
       </c>
       <c r="D538" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="5">
-        <v>44751.8963049</v>
+        <v>44751.9761717</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>33.4</v>
+        <v>40.3</v>
       </c>
       <c r="D539" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="5">
-        <v>44751.8969994</v>
+        <v>44751.9768663</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>30.7</v>
+        <v>40.6</v>
       </c>
       <c r="D540" s="1" t="n">
         <v>62</v>
@@ -6290,13 +7325,13 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="5">
-        <v>44751.8976938</v>
+        <v>44751.9775608</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="D541" s="1" t="n">
         <v>62</v>
@@ -6304,13 +7339,13 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="5">
-        <v>44751.8983884</v>
+        <v>44751.9782552</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>41.3</v>
+        <v>36.1</v>
       </c>
       <c r="D542" s="1" t="n">
         <v>62</v>
@@ -6318,13 +7353,13 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="5">
-        <v>44751.8990831</v>
+        <v>44751.9789498</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>37.4</v>
+        <v>31.4</v>
       </c>
       <c r="D543" s="1" t="n">
         <v>62</v>
@@ -6332,13 +7367,13 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="5">
-        <v>44751.8997776</v>
+        <v>44751.9796443</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="D544" s="1" t="n">
         <v>62</v>
@@ -6346,125 +7381,125 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="5">
-        <v>44751.9004721</v>
+        <v>44751.9803388</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>38</v>
+        <v>39.7</v>
       </c>
       <c r="D545" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="5">
-        <v>44751.9011665</v>
+        <v>44751.9810332</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>31.1</v>
+        <v>35.5</v>
       </c>
       <c r="D546" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="5">
-        <v>44751.901861</v>
+        <v>44751.9817278</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="D547" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="5">
-        <v>44751.9025555</v>
+        <v>44751.9824224</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>37.5</v>
+        <v>34</v>
       </c>
       <c r="D548" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="5">
-        <v>44751.9032499</v>
+        <v>44751.9831169</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>40.7</v>
+        <v>33.9</v>
       </c>
       <c r="D549" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="5">
-        <v>44751.9039444</v>
+        <v>44751.9838115</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>30.7</v>
+        <v>35.8</v>
       </c>
       <c r="D550" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="5">
-        <v>44751.9046389</v>
+        <v>44751.9845066</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>31.2</v>
+        <v>35.9</v>
       </c>
       <c r="D551" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="5">
-        <v>44751.9053335</v>
+        <v>44751.9852011</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>37.5</v>
+        <v>30.4</v>
       </c>
       <c r="D552" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="5">
-        <v>44751.906028</v>
+        <v>44751.9858956</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>32.3</v>
+        <v>36.6</v>
       </c>
       <c r="D553" s="1" t="n">
         <v>62</v>
@@ -6472,111 +7507,111 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="5">
-        <v>44751.9067224</v>
+        <v>44751.98659</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>40.8</v>
+        <v>29.2</v>
       </c>
       <c r="D554" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="5">
-        <v>44751.9074169</v>
+        <v>44751.9872845</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>30.1</v>
+        <v>31.6</v>
       </c>
       <c r="D555" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="5">
-        <v>44751.9081115</v>
+        <v>44751.987979</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>40</v>
+        <v>35.2</v>
       </c>
       <c r="D556" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="5">
-        <v>44751.908806</v>
+        <v>44751.9886734</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>40.4</v>
+        <v>35.8</v>
       </c>
       <c r="D557" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="5">
-        <v>44751.9095004</v>
+        <v>44751.9893679</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>36.7</v>
+        <v>35.4</v>
       </c>
       <c r="D558" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="5">
-        <v>44751.9101948</v>
+        <v>44751.9900624</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>30.1</v>
+        <v>35.3</v>
       </c>
       <c r="D559" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="5">
-        <v>44751.9108893</v>
+        <v>44751.990757</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>30.3</v>
+        <v>27.8</v>
       </c>
       <c r="D560" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="5">
-        <v>44751.9115838</v>
+        <v>44751.9914515</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="D561" s="1" t="n">
         <v>61</v>
@@ -6584,27 +7619,27 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="5">
-        <v>44751.9122783</v>
+        <v>44751.992146</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>30.7</v>
+        <v>29.9</v>
       </c>
       <c r="D562" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="5">
-        <v>44751.9129728</v>
+        <v>44751.9928405</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>37.8</v>
+        <v>35.2</v>
       </c>
       <c r="D563" s="1" t="n">
         <v>62</v>
@@ -6612,69 +7647,69 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="5">
-        <v>44751.9136673</v>
+        <v>44751.993535</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>40.2</v>
+        <v>28.2</v>
       </c>
       <c r="D564" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="5">
-        <v>44751.9143617</v>
+        <v>44751.9942294</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>36.9</v>
+        <v>27.1</v>
       </c>
       <c r="D565" s="1" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="5">
-        <v>44751.9150563</v>
+        <v>44751.9949239</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>38.1</v>
+        <v>27.5</v>
       </c>
       <c r="D566" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="5">
-        <v>44751.9157509</v>
+        <v>44751.9956183</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>31.1</v>
+        <v>28.6</v>
       </c>
       <c r="D567" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="5">
-        <v>44751.9164455</v>
+        <v>44751.9963128</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>32.5</v>
+        <v>27.1</v>
       </c>
       <c r="D568" s="1" t="n">
         <v>61</v>
@@ -6682,13 +7717,13 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="5">
-        <v>44751.9171399</v>
+        <v>44751.9970074</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>34.9</v>
+        <v>31</v>
       </c>
       <c r="D569" s="1" t="n">
         <v>61</v>
@@ -6696,13 +7731,13 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="5">
-        <v>44751.9178345</v>
+        <v>44751.9977018</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>37.2</v>
+        <v>27.4</v>
       </c>
       <c r="D570" s="1" t="n">
         <v>61</v>
@@ -6710,13 +7745,13 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="5">
-        <v>44751.9185289</v>
+        <v>44751.9983963</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>36.7</v>
+        <v>28.7</v>
       </c>
       <c r="D571" s="1" t="n">
         <v>61</v>
@@ -6724,1639 +7759,29 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="5">
-        <v>44751.9192234</v>
+        <v>44751.9990908</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>32.7</v>
+        <v>35</v>
       </c>
       <c r="D572" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="5">
-        <v>44751.9199178</v>
+        <v>44751.9997852</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>34.3</v>
+        <v>32.8</v>
       </c>
       <c r="D573" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
-      <c r="A574" s="5">
-        <v>44751.9206124</v>
-      </c>
-      <c r="B574" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C574" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="D574" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
-      <c r="A575" s="5">
-        <v>44751.9213069</v>
-      </c>
-      <c r="B575" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C575" s="1" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D575" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="5">
-        <v>44751.9220013</v>
-      </c>
-      <c r="B576" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C576" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D576" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="5">
-        <v>44751.9226959</v>
-      </c>
-      <c r="B577" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C577" s="1" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D577" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="5">
-        <v>44751.9233904</v>
-      </c>
-      <c r="B578" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C578" s="1" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D578" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="5">
-        <v>44751.9240848</v>
-      </c>
-      <c r="B579" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C579" s="1" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D579" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
-      <c r="A580" s="5">
-        <v>44751.9247794</v>
-      </c>
-      <c r="B580" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C580" s="1" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D580" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" s="5">
-        <v>44751.9254738</v>
-      </c>
-      <c r="B581" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C581" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="D581" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
-      <c r="A582" s="5">
-        <v>44751.9261683</v>
-      </c>
-      <c r="B582" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C582" s="1" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D582" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583" s="5">
-        <v>44751.9268628</v>
-      </c>
-      <c r="B583" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C583" s="1" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D583" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
-      <c r="A584" s="5">
-        <v>44751.9275574</v>
-      </c>
-      <c r="B584" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C584" s="1" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D584" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="A585" s="5">
-        <v>44751.9282519</v>
-      </c>
-      <c r="B585" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C585" s="1" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D585" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586" s="5">
-        <v>44751.9289464</v>
-      </c>
-      <c r="B586" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C586" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D586" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" s="5">
-        <v>44751.9296409</v>
-      </c>
-      <c r="B587" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C587" s="1" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D587" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="5">
-        <v>44751.9303353</v>
-      </c>
-      <c r="B588" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C588" s="1" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D588" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589" s="5">
-        <v>44751.9310298</v>
-      </c>
-      <c r="B589" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C589" s="1" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D589" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" s="5">
-        <v>44751.9317244</v>
-      </c>
-      <c r="B590" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C590" s="1" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D590" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" s="5">
-        <v>44751.9324188</v>
-      </c>
-      <c r="B591" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C591" s="1" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D591" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" s="5">
-        <v>44751.9331133</v>
-      </c>
-      <c r="B592" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C592" s="1" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D592" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" s="5">
-        <v>44751.9338077</v>
-      </c>
-      <c r="B593" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C593" s="1" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D593" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" s="5">
-        <v>44751.9345023</v>
-      </c>
-      <c r="B594" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C594" s="1" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D594" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" s="5">
-        <v>44751.9351968</v>
-      </c>
-      <c r="B595" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C595" s="1" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D595" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" s="5">
-        <v>44751.9358913</v>
-      </c>
-      <c r="B596" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C596" s="1" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D596" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="5">
-        <v>44751.9365858</v>
-      </c>
-      <c r="B597" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C597" s="1" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D597" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="5">
-        <v>44751.9372802</v>
-      </c>
-      <c r="B598" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C598" s="1" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D598" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4">
-      <c r="A599" s="5">
-        <v>44751.9379746</v>
-      </c>
-      <c r="B599" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C599" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D599" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
-      <c r="A600" s="5">
-        <v>44751.9386692</v>
-      </c>
-      <c r="B600" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C600" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="D600" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4">
-      <c r="A601" s="5">
-        <v>44751.9393637</v>
-      </c>
-      <c r="B601" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C601" s="1" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D601" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4">
-      <c r="A602" s="5">
-        <v>44751.9400581</v>
-      </c>
-      <c r="B602" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C602" s="1" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D602" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4">
-      <c r="A603" s="5">
-        <v>44751.9407527</v>
-      </c>
-      <c r="B603" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C603" s="1" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D603" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4">
-      <c r="A604" s="5">
-        <v>44751.9414472</v>
-      </c>
-      <c r="B604" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C604" s="1" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D604" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4">
-      <c r="A605" s="5">
-        <v>44751.9421416</v>
-      </c>
-      <c r="B605" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C605" s="1" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D605" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4">
-      <c r="A606" s="5">
-        <v>44751.9428361</v>
-      </c>
-      <c r="B606" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C606" s="1" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D606" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4">
-      <c r="A607" s="5">
-        <v>44751.9435306</v>
-      </c>
-      <c r="B607" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C607" s="1" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D607" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4">
-      <c r="A608" s="5">
-        <v>44751.9442251</v>
-      </c>
-      <c r="B608" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C608" s="1" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D608" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4">
-      <c r="A609" s="5">
-        <v>44751.9449196</v>
-      </c>
-      <c r="B609" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C609" s="1" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D609" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4">
-      <c r="A610" s="5">
-        <v>44751.9456141</v>
-      </c>
-      <c r="B610" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C610" s="1" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D610" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4">
-      <c r="A611" s="5">
-        <v>44751.9463086</v>
-      </c>
-      <c r="B611" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C611" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="D611" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4">
-      <c r="A612" s="5">
-        <v>44751.9470031</v>
-      </c>
-      <c r="B612" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C612" s="1" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D612" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4">
-      <c r="A613" s="5">
-        <v>44751.9476977</v>
-      </c>
-      <c r="B613" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C613" s="1" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D613" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4">
-      <c r="A614" s="5">
-        <v>44751.9483923</v>
-      </c>
-      <c r="B614" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C614" s="1" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D614" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4">
-      <c r="A615" s="5">
-        <v>44751.9490868</v>
-      </c>
-      <c r="B615" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C615" s="1" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D615" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4">
-      <c r="A616" s="5">
-        <v>44751.9497812</v>
-      </c>
-      <c r="B616" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C616" s="1" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D616" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4">
-      <c r="A617" s="5">
-        <v>44751.9504758</v>
-      </c>
-      <c r="B617" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C617" s="1" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D617" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4">
-      <c r="A618" s="5">
-        <v>44751.9511703</v>
-      </c>
-      <c r="B618" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C618" s="1" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D618" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4">
-      <c r="A619" s="5">
-        <v>44751.9518648</v>
-      </c>
-      <c r="B619" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C619" s="1" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D619" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4">
-      <c r="A620" s="5">
-        <v>44751.9525592</v>
-      </c>
-      <c r="B620" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C620" s="1" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D620" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4">
-      <c r="A621" s="5">
-        <v>44751.9532537</v>
-      </c>
-      <c r="B621" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C621" s="1" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D621" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4">
-      <c r="A622" s="5">
-        <v>44751.9539481</v>
-      </c>
-      <c r="B622" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C622" s="1" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D622" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4">
-      <c r="A623" s="5">
-        <v>44751.9546426</v>
-      </c>
-      <c r="B623" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C623" s="1" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D623" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4">
-      <c r="A624" s="5">
-        <v>44751.9553373</v>
-      </c>
-      <c r="B624" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C624" s="1" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D624" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4">
-      <c r="A625" s="5">
-        <v>44751.9560317</v>
-      </c>
-      <c r="B625" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C625" s="1" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D625" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4">
-      <c r="A626" s="5">
-        <v>44751.9567262</v>
-      </c>
-      <c r="B626" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C626" s="1" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D626" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="627" spans="1:4">
-      <c r="A627" s="5">
-        <v>44751.9574206</v>
-      </c>
-      <c r="B627" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C627" s="1" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D627" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4">
-      <c r="A628" s="5">
-        <v>44751.9581152</v>
-      </c>
-      <c r="B628" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C628" s="1" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D628" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4">
-      <c r="A629" s="5">
-        <v>44751.9588096</v>
-      </c>
-      <c r="B629" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C629" s="1" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D629" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4">
-      <c r="A630" s="5">
-        <v>44751.9595041</v>
-      </c>
-      <c r="B630" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C630" s="1" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D630" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4">
-      <c r="A631" s="5">
-        <v>44751.9601986</v>
-      </c>
-      <c r="B631" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C631" s="1" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D631" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4">
-      <c r="A632" s="5">
-        <v>44751.9608931</v>
-      </c>
-      <c r="B632" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C632" s="1" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D632" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4">
-      <c r="A633" s="5">
-        <v>44751.9615875</v>
-      </c>
-      <c r="B633" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C633" s="1" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="D633" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4">
-      <c r="A634" s="5">
-        <v>44751.9622819</v>
-      </c>
-      <c r="B634" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C634" s="1" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D634" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4">
-      <c r="A635" s="5">
-        <v>44751.9629764</v>
-      </c>
-      <c r="B635" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C635" s="1" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D635" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4">
-      <c r="A636" s="5">
-        <v>44751.9636709</v>
-      </c>
-      <c r="B636" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C636" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="D636" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4">
-      <c r="A637" s="5">
-        <v>44751.9643655</v>
-      </c>
-      <c r="B637" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C637" s="1" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D637" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4">
-      <c r="A638" s="5">
-        <v>44751.9650599</v>
-      </c>
-      <c r="B638" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C638" s="1" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D638" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4">
-      <c r="A639" s="5">
-        <v>44751.9657545</v>
-      </c>
-      <c r="B639" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C639" s="1" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D639" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4">
-      <c r="A640" s="5">
-        <v>44751.966449</v>
-      </c>
-      <c r="B640" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C640" s="1" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="D640" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4">
-      <c r="A641" s="5">
-        <v>44751.9671435</v>
-      </c>
-      <c r="B641" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C641" s="1" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="D641" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="642" spans="1:4">
-      <c r="A642" s="5">
-        <v>44751.967838</v>
-      </c>
-      <c r="B642" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C642" s="1" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D642" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4">
-      <c r="A643" s="5">
-        <v>44751.9685325</v>
-      </c>
-      <c r="B643" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C643" s="1" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D643" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4">
-      <c r="A644" s="5">
-        <v>44751.969227</v>
-      </c>
-      <c r="B644" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C644" s="1" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="D644" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4">
-      <c r="A645" s="5">
-        <v>44751.9699214</v>
-      </c>
-      <c r="B645" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C645" s="1" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D645" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4">
-      <c r="A646" s="5">
-        <v>44751.9706158</v>
-      </c>
-      <c r="B646" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C646" s="1" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D646" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4">
-      <c r="A647" s="5">
-        <v>44751.9713103</v>
-      </c>
-      <c r="B647" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C647" s="1" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="D647" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4">
-      <c r="A648" s="5">
-        <v>44751.9720048</v>
-      </c>
-      <c r="B648" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C648" s="1" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D648" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4">
-      <c r="A649" s="5">
-        <v>44751.9726993</v>
-      </c>
-      <c r="B649" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C649" s="1" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D649" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4">
-      <c r="A650" s="5">
-        <v>44751.9733938</v>
-      </c>
-      <c r="B650" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C650" s="1" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="D650" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4">
-      <c r="A651" s="5">
-        <v>44751.9740882</v>
-      </c>
-      <c r="B651" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C651" s="1" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D651" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4">
-      <c r="A652" s="5">
-        <v>44751.9747828</v>
-      </c>
-      <c r="B652" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C652" s="1" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D652" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4">
-      <c r="A653" s="5">
-        <v>44751.9754773</v>
-      </c>
-      <c r="B653" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C653" s="1" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="D653" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="654" spans="1:4">
-      <c r="A654" s="5">
-        <v>44751.9761717</v>
-      </c>
-      <c r="B654" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C654" s="1" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="D654" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4">
-      <c r="A655" s="5">
-        <v>44751.9768663</v>
-      </c>
-      <c r="B655" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C655" s="1" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="D655" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4">
-      <c r="A656" s="5">
-        <v>44751.9775608</v>
-      </c>
-      <c r="B656" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C656" s="1" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D656" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="657" spans="1:4">
-      <c r="A657" s="5">
-        <v>44751.9782552</v>
-      </c>
-      <c r="B657" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C657" s="1" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="D657" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4">
-      <c r="A658" s="5">
-        <v>44751.9789498</v>
-      </c>
-      <c r="B658" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C658" s="1" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D658" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4">
-      <c r="A659" s="5">
-        <v>44751.9796443</v>
-      </c>
-      <c r="B659" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C659" s="1" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D659" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4">
-      <c r="A660" s="5">
-        <v>44751.9803388</v>
-      </c>
-      <c r="B660" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C660" s="1" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="D660" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4">
-      <c r="A661" s="5">
-        <v>44751.9810332</v>
-      </c>
-      <c r="B661" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C661" s="1" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D661" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4">
-      <c r="A662" s="5">
-        <v>44751.9817278</v>
-      </c>
-      <c r="B662" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C662" s="1" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="D662" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4">
-      <c r="A663" s="5">
-        <v>44751.9824224</v>
-      </c>
-      <c r="B663" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C663" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="D663" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="664" spans="1:4">
-      <c r="A664" s="5">
-        <v>44751.9831169</v>
-      </c>
-      <c r="B664" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C664" s="1" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D664" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4">
-      <c r="A665" s="5">
-        <v>44751.9838115</v>
-      </c>
-      <c r="B665" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C665" s="1" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D665" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4">
-      <c r="A666" s="5">
-        <v>44751.9845066</v>
-      </c>
-      <c r="B666" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C666" s="1" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D666" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4">
-      <c r="A667" s="5">
-        <v>44751.9852011</v>
-      </c>
-      <c r="B667" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C667" s="1" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D667" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4">
-      <c r="A668" s="5">
-        <v>44751.9858956</v>
-      </c>
-      <c r="B668" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C668" s="1" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D668" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4">
-      <c r="A669" s="5">
-        <v>44751.98659</v>
-      </c>
-      <c r="B669" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C669" s="1" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D669" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4">
-      <c r="A670" s="5">
-        <v>44751.9872845</v>
-      </c>
-      <c r="B670" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C670" s="1" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="D670" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="671" spans="1:4">
-      <c r="A671" s="5">
-        <v>44751.987979</v>
-      </c>
-      <c r="B671" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C671" s="1" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D671" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4">
-      <c r="A672" s="5">
-        <v>44751.9886734</v>
-      </c>
-      <c r="B672" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C672" s="1" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D672" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4">
-      <c r="A673" s="5">
-        <v>44751.9893679</v>
-      </c>
-      <c r="B673" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C673" s="1" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D673" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4">
-      <c r="A674" s="5">
-        <v>44751.9900624</v>
-      </c>
-      <c r="B674" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C674" s="1" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D674" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4">
-      <c r="A675" s="5">
-        <v>44751.990757</v>
-      </c>
-      <c r="B675" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C675" s="1" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D675" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4">
-      <c r="A676" s="5">
-        <v>44751.9914515</v>
-      </c>
-      <c r="B676" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C676" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D676" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4">
-      <c r="A677" s="5">
-        <v>44751.992146</v>
-      </c>
-      <c r="B677" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C677" s="1" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D677" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4">
-      <c r="A678" s="5">
-        <v>44751.9928405</v>
-      </c>
-      <c r="B678" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C678" s="1" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D678" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4">
-      <c r="A679" s="5">
-        <v>44751.993535</v>
-      </c>
-      <c r="B679" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C679" s="1" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D679" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4">
-      <c r="A680" s="5">
-        <v>44751.9942294</v>
-      </c>
-      <c r="B680" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C680" s="1" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D680" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="681" spans="1:4">
-      <c r="A681" s="5">
-        <v>44751.9949239</v>
-      </c>
-      <c r="B681" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C681" s="1" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D681" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4">
-      <c r="A682" s="5">
-        <v>44751.9956183</v>
-      </c>
-      <c r="B682" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C682" s="1" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D682" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4">
-      <c r="A683" s="5">
-        <v>44751.9963128</v>
-      </c>
-      <c r="B683" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C683" s="1" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D683" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4">
-      <c r="A684" s="5">
-        <v>44751.9970074</v>
-      </c>
-      <c r="B684" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C684" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D684" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4">
-      <c r="A685" s="5">
-        <v>44751.9977018</v>
-      </c>
-      <c r="B685" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C685" s="1" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D685" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4">
-      <c r="A686" s="5">
-        <v>44751.9983963</v>
-      </c>
-      <c r="B686" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C686" s="1" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D686" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4">
-      <c r="A687" s="5">
-        <v>44751.9990908</v>
-      </c>
-      <c r="B687" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C687" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="D687" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="688" spans="1:4">
-      <c r="A688" s="5">
-        <v>44751.9997852</v>
-      </c>
-      <c r="B688" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="C688" s="1" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D688" s="1" t="n">
         <v>60</v>
       </c>
     </row>
